--- a/Projects/ES ASG/ES ASG API Playbook Project/VA API Developer Playbook Project Plan 2018.08.10a.xlsx
+++ b/Projects/ES ASG/ES ASG API Playbook Project/VA API Developer Playbook Project Plan 2018.08.10a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ES-ASG\Projects\ES ASG\ES ASG API Playbook Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73FBB57A-DE9B-4554-B12F-A99DC9C1C655}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6776F50-F785-4D63-8372-6BC8C4DDFC50}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20498" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="106">
   <si>
     <t>Due Date</t>
   </si>
@@ -274,10 +274,6 @@
     <t>ASG_API Playbook_04.00 API Contracts_Section_01.01_Initial Draft.docx</t>
   </si>
   <si>
-    <t>ASG_API Playbook_05.01 Naming Standards_Section_01.01_Initial Draft.docx
-ASG_API Playbook_05.01 Naming Standards_Section_01.02_SME Review {MaxGirin}.docx</t>
-  </si>
-  <si>
     <t>ASG_API Playbook_05.04 Objects and Methods_Section_01.01_Initial Draft {max girin}.docx</t>
   </si>
   <si>
@@ -291,18 +287,6 @@
     <t>ASG_API Playbook_07.00 Unit Testing_Section_01.01_Initial Draft.docx</t>
   </si>
   <si>
-    <t>ASG_API Playbook_09.01 Exception Handling Approach_Section_01.01_Initial Draft.docx
-ASG_API Playbook_09.01 Exception Handling Approach_Section_01.02_SME Review.docx
-ASG_API Playbook_09.01 Exception Handling Approach_Section_01.03_SME Review.docx
-ASG_API Playbook_09.01 Exception Handling Approach_Section_01.04_SME Review Resolved.docx</t>
-  </si>
-  <si>
-    <t>ASG_API Playbook_10.00 Baseline Logging_Section_01.01_Initial Draft.docx</t>
-  </si>
-  <si>
-    <t>ASG_API Playbook_11.00 Baseline Security_Section_01.01_Initial Draft.docx</t>
-  </si>
-  <si>
     <t>ASG_API Playbook_12.03 Reusability Section_01.01_Initial Draft.docx
 ASG_API Playbook_12.03 Reusability Section_01.02_SME Review {MaxGirin}.docx</t>
   </si>
@@ -328,15 +312,6 @@
     <t>Status as of 8/2</t>
   </si>
   <si>
-    <t>ASG_API Playbook_02.01 Development Lifecycle_Section_01.01_Initial Draft.docx
-ASG_API Playbook_02.01 Development Lifecycle_Section_01.02_SME Review.docx
-ASG_API Playbook_02.01 Development Lifecycle_Section_01.03_SME Review Resolved.docx
-ASG_API Playbook_02.01 Development Lifecycle_Section_01.04_V2 Draft.docx</t>
-  </si>
-  <si>
-    <t>Paul to research history.</t>
-  </si>
-  <si>
     <t>SME Review Resolution</t>
   </si>
   <si>
@@ -349,22 +324,46 @@
     <t>Ron to reach out to Frank</t>
   </si>
   <si>
-    <t>9.1 - 9.8 is one document (Paul to reach out to frank)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASG_API Playbook_01.00 Introduction_Section_01.01_Initial Draft.docx
+    <t>Publication Review</t>
+  </si>
+  <si>
+    <t>ASG_API Playbook_05.03 Configuration Parameters_01.01 Initial Draft {Max}.docx</t>
+  </si>
+  <si>
+    <t>ASG_API Playbook_01.00 Introduction_Section_01.01_Initial Draft.docx
 ASG_API Playbook_01.00 Introduction_Section_01.02_SME Review {Paul Marshall}.docx
-ASG_API Playbook_01.03 Introduction Section_01.03_Standards Review Resolution {Braunstein}.docx
-</t>
-  </si>
-  <si>
-    <t>Publication Review</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>ASG_API Playbook_05.03 Configuration Parameters_01.01 Initial Draft {Max}.docx</t>
+ASG_API Playbook_01.00 Introduction_Section_01.03_Standards Review Resolution {Braunstein}.docx
+ASG_API Playbook_01.00 Introduction_Section_01.04_Publication Review {Paul}.docx
+ASG_API Playbook_01.00 Introduction_Section_01.05_Published {Paul Marshall}.docx</t>
+  </si>
+  <si>
+    <t>ASG_API Playbook_02.01 Development Lifecycle_Section_01.01_Initial Draft {Max}.docx
+ASG_API Playbook_02.01 Development Lifecycle_Section_01.02_SME Review {Jordan}.docx
+ASG_API Playbook_02.01 Development Lifecycle_Section_01.03_SME Review Resolved {Max}.docx</t>
+  </si>
+  <si>
+    <t>ASG_API Playbook_05.01 Naming Standards_Section_01.01_Initial Draft {Jordan}.docx
+ASG_API Playbook_05.01 Naming Standards_Section_01.02_SME Review {MaxGirin}.docx
+ASG_API Playbook_05.01 Naming Standards_Section_01.03_SME Review {John_McP}.docx</t>
+  </si>
+  <si>
+    <t>ASG_API Playbook_09.01 Exception Handling_Section_01.01_Initial Draft.docx
+ASG_API Playbook_09.01 Exception Handling_Section_01.02_SME Review.docx
+ASG_API Playbook_09.01 Exception Handling_Section_01.03_SME Review.docx
+ASG_API Playbook_09.01 Exception Handling_Section_01.04_SME Review Resolved.docx
+ASG_API Playbook_09.01 Exception Handling_Section_01.05_Standards Review {Paul Marshall}.docx
+ASG_API Playbook_09.01 Exception Handling_Section_01.06_Tech Review Braunstein.docx</t>
+  </si>
+  <si>
+    <t>ASG_API Playbook_11.00 Baseline Security_Section_01.01_Initial Draft.docx
+ASG_API Playbook_11.00 Baseline Security_Section_01.02_JSM_Draft.docx</t>
+  </si>
+  <si>
+    <t>ASG_API Playbook_10.00 Baseline Logging_Section_01.01_Initial Draft.docx
+ASG_API Playbook_10.00 Baseline Logging_Section_01.02_SME Review_JeffGieber.docx</t>
+  </si>
+  <si>
+    <t>Deprecate</t>
   </si>
 </sst>
 </file>
@@ -521,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -593,9 +592,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1275,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1317,16 +1313,16 @@
         <v>74</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>77</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -1349,14 +1345,14 @@
         <v>47</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J2" s="24"/>
     </row>
-    <row r="3" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -1379,44 +1375,42 @@
         <v>64</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>98</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="36" t="s">
+      <c r="H4" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="34"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="22">
@@ -1441,7 +1435,7 @@
         <v>47</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I5" s="30" t="s">
         <v>79</v>
@@ -1471,14 +1465,14 @@
         <v>69</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>80</v>
       </c>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -1501,10 +1495,10 @@
         <v>68</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
@@ -1530,7 +1524,7 @@
         <v>47</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I8" s="30"/>
     </row>
@@ -1557,10 +1551,10 @@
         <v>69</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J9" s="24"/>
     </row>
@@ -1587,10 +1581,10 @@
         <v>73</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" s="22"/>
     </row>
@@ -1617,10 +1611,10 @@
         <v>73</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J11" s="22"/>
     </row>
@@ -1647,10 +1641,10 @@
         <v>64</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J12" s="18"/>
     </row>
@@ -1677,10 +1671,10 @@
         <v>73</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J13" s="24"/>
     </row>
@@ -1695,7 +1689,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>43</v>
@@ -1707,14 +1701,14 @@
         <v>69</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="15" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="15" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -1737,10 +1731,10 @@
         <v>68</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="J15" s="18"/>
     </row>
@@ -1767,11 +1761,9 @@
         <v>68</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>103</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="I16" s="29"/>
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
@@ -1797,7 +1789,7 @@
         <v>68</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="I17" s="29"/>
       <c r="J17" s="18"/>
@@ -1825,7 +1817,7 @@
         <v>68</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="I18" s="29"/>
       <c r="J18" s="17"/>
@@ -1853,7 +1845,7 @@
         <v>68</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="I19" s="29"/>
       <c r="J19" s="18"/>
@@ -1881,7 +1873,7 @@
         <v>68</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="I20" s="29"/>
       <c r="J20" s="17"/>
@@ -1908,8 +1900,8 @@
       <c r="G21" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="32" t="s">
-        <v>95</v>
+      <c r="H21" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="18"/>
@@ -1937,12 +1929,12 @@
         <v>68</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="I22" s="29"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" s="15" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -1965,14 +1957,14 @@
         <v>69</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>104</v>
       </c>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" s="15" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -1995,10 +1987,10 @@
         <v>47</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="29" t="s">
         <v>88</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="J24" s="18"/>
     </row>
@@ -2025,38 +2017,38 @@
         <v>64</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="18"/>
     </row>
     <row r="26" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="33">
+      <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="32">
         <v>12.2</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="35" t="s">
+      <c r="G26" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="34"/>
+      <c r="H26" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="35"/>
+      <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="22">
@@ -2080,41 +2072,41 @@
       <c r="G27" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="30" t="s">
-        <v>94</v>
+      <c r="H27" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="33">
+      <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="32">
         <v>12.4</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="34"/>
+      <c r="H28" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="35"/>
+      <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="22">
@@ -2139,10 +2131,10 @@
         <v>69</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J29" s="23"/>
     </row>

--- a/Projects/ES ASG/ES ASG API Playbook Project/VA API Developer Playbook Project Plan 2018.08.10a.xlsx
+++ b/Projects/ES ASG/ES ASG API Playbook Project/VA API Developer Playbook Project Plan 2018.08.10a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ES-ASG\Projects\ES ASG\ES ASG API Playbook Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6776F50-F785-4D63-8372-6BC8C4DDFC50}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193B31FB-251F-4870-A44A-CB7DC59E957F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20498" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
